--- a/Files/Book.xlsx
+++ b/Files/Book.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25003"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="116" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F32DCF4E-EB87-4BA0-AACF-5BC899A3ACB9}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F0A4DC3-7DA1-40A2-8835-69D8D362A627}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>Item</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Remark</t>
   </si>
   <si>
+    <t>RemarkFullTranslated</t>
+  </si>
+  <si>
     <t>Storage condition</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
   </si>
   <si>
     <t>SECTION 5.3</t>
+  </si>
+  <si>
+    <t>تمام مواد برای کار، که مسئولیت نگهداری انحصاری آن با پیمانکار است، باید مطابق با روش خوب، روی پالت‌ها یا بلوک‌های چوبی، دور از زمین و بالاتر از سطح آب راکد ذخیره شوند. متریال باید در صورت امکان پوشانده شوند. مواد نباید در نزدیکی مکان های عملیاتی مانند تمیز کردن با باد(بلست) یا رنگ آمیزی نگهداری شوند که ممکن است باعث شود رسوبات نامطلوبی بر روی مواد ایجاد شود. پیمانکار باید تمام مواد برای کار را در مناطقی جدا از مواد اضافی یا ضایعات ذخیره کند. برای شیرها باید دقت و مراقبت ویژه ای انجام شود. شیرهای توپی باید در مکانی تمیز و سرپوشیده نگهداری شوند. پلاگ های آنها باید همیشه در حالت باز نگه داشته شود، تا آخرین لحظه قبل از نصب انها.</t>
   </si>
   <si>
     <t>visual inspection</t>
@@ -87,6 +93,49 @@
 VISUAL EXAMINATION</t>
   </si>
   <si>
+    <t xml:space="preserve">(الف) این بند شامل روش‌ها و الزامات بازرسی چشمی است که زمانی که توسط بخش کد ارجاع‌دهنده مشخص می‌شود، قابل اعمال است. روش های ویژه بازرسی چشمی مورد نیاز برای هر نوع معاینه در این مقاله گنجانده نشده است، زیرا برنامه های کاربردی زیادی وجود دارد که در آنها معاینه چشمی مورد نیاز است. برخی از نمونه‌های این برنامه‌ها شامل تست های غیرمخرب هستند.معاینات، تست نشت، معاینات حین سرویس و مراحل ساخت.
+(ب) الزامات بند 1، الزامات عمومی، زمانی اعمال می شود که معاینه چشمی، مطابق با بند 9، توسط بخش کد مرجع مورد نیاز باشد.
+ج) تعاریف اصطلاحات برای بازرسی چشمی در بند 1، پیوست اجباری I، I-121.6، VT - معاینه چشمی آمده است.
+T-920  عمومی
+T-921 الزامات رویه کتبی
+الزامات T-921.1. معاینات بصری باید طبق یک روش کتبی انجام شود که حداقل باید شامل الزامات فهرست شده در جدول     T-921 باشد. رویه مکتوب باید یک مقدار واحد یا محدوده ای از مقادیر را برای هر نیاز تعیین کند.
+صلاحیت روش T-921.2. هنگامی که صلاحیت روش توسط بخش کد ارجاع دهنده مشخص می شود، تغییر یک مورد ضروری در جدول T-921 که به عنوان یک متغیر اساسی شناسایی شده است، مستلزم آزمون صلاحیت مجدد رویه مکتوب است. تغییر الزامی تغییر یک مورد که به عنوان یک متغیر غیر ضروری شناسایی شده است، نیازی به صلاحیت مجدد و یک رویه کتبی ندارد. کلیه تغییرات متغیرهای اساسی یا غیر ضروری نسبت به مواردی که در رویه کتبی مشخص شده است، مستلزم یک بازنگری یا الحاقی به رویه کتبی است.
+نمایش T-921.3. رویه باید حاوی یا ارجاع به گزارشی از آنچه برای نشان دادن کافی و کامل بودن روش معاینه استفاده شده باشد. به طور کلی، یک خط ریز با عرض 1/32 اینچ (0.8 میلی متر) یا کمتر، یک نقص مصنوعی یا یک وضعیت شبیه سازی شده، واقع در سطح یا سطحی مشابه با سطح مورد بررسی، ممکن است به عنوان روشی برای فرآیند نمایش در نظر گرفته می شود. 
+شرایط یا نقص مصنوعی باید در کمترین مکان قابل تشخیص در سطح ناحیه مورد بررسی قرار گیرد تا اعتبار روش بررسی شود.
+الزامات پرسنلی T-922 کاربرد این ماده مسئول تعیین پرسنل واجد شرایط برای انجام معاینات چشمی بر اساس الزامات این ماده خواهد بود. به انتخاب سازمان، او ممکن است برای هر محصول یک گواهینامه یا چندین رکورد امضا شده جداگانه بر اساس منطقه یا نوع کار یا هر دو با هم داشته باشد. در صورت غیرعملی بودن استفاده از پرسنل متخصص برای انجام معاینه چشمی، از پرسنلی که آگاه و آموزش دیده که دارای صلاحیت های محدود هستند ، برای انجام معاینات خاص و امضای فرم های گزارش می توان استفاده نمود. پرسنلی اجرا امتحانات را بر عهده میگیرند باید مطابق با الزامات بخش کد مرجع واجد شرایط باشند.
+T-923 الزامات فیزیکی
+پرسنل باید یک آزمایش بینایی سالانه برای اطمینان از حدت طبیعی یا تصحیح شده در فاصله نزدیک داشته باشند، به طوری که بتوانند حروف استاندارد J-1 را در نمودارهای نوع آزمایش استاندارد Jaeger برای دید نزدیک بخوانند. تست های معادل بینایی نزدیک قابل قبول است.
+T-930 تجهیزات
+تجهیزات مورد استفاده برای تکنیک های معاینه بصری، به عنوان مثال، مستقیم، از راه دور، یا نیمه شفاف، باید دارای قابلیت های مشخص شده در روش باشند. قابلیت های شامل، اما محدود به مشاهده، بزرگنمایی، شناسایی، اندازه گیری و/یا ثبت مشاهدات مطابق با الزامات بخش کد مرجع باشد.
+ T-950 تکنیک
+T-951 برنامه های کاربردی
+معاینه بصری به طور کلی برای تعیین مواردی مانند وضعیت سطح قطعه، هم ترازی سطوح جفت، شکل یا شواهدی از نشتی استفاده می شود. علاوه بر این، از معاینه بصری برای تعیین شرایط زیرسطحی یک ماده کامپوزیت (ورقه‌ی شفاف) استفاده می‌شود.
+ T-952 بازرسی تصویری مستقیم
+بازرسی مستقیم چشمی معمولاً زمانی انجام می شود که دسترسی برای قرار دادن چشم در فاصله 24 اینچی کافی باشد.
+(600 میلی متر) از سطح مورد بررسی و در زاویه ای که کمتر از 30 درجه نسبت به سطح مورد بررسی قرار گیرد. ممکن است از آینه برای بهبود زاویه دید استفاده شود و از وسایل کمکی مانند عدسی بزرگ‌نما برای کمک به معاینه استفاده شود. روشنایی (نور سفید طبیعی یا تکمیلی) از سطح مورد بازرسی موردنیاز است برای ،بخش خاص،اجزا،مخازن،بخشی از آن. شدت نور، منبع نور سفید طبیعی یا مکمل، باید قبل از معاینه با نورسنج سفید اندازه گیری شود یا از منبع نور تایید شده استفاده شود. تأیید منابع نور باید فقط یک بار نشان داده شود، مستند شده و در پرونده نگهداری شود. 
+T-953 معاینه بصری از راه دور
+در برخی موارد، معاینه چشمی از راه دور ممکن است جایگزین معاینه مستقیم شود. معاینه چشمی از راه دور ممکن است از وسایل کمک بصری مانند آینه، تلسکوپ، حفره‌نما، فیبر نوری، دوربین یا سایر ابزار مناسب استفاده کند. چنین سیستم هایی باید دارای قابلیت تفکیک و شدت نور حداقل معادل آن چیزی باشد که با مشاهده مستقیم بصری به دست می آید.
+T-954 معاینه تصویری نیمه شفاف
+معاینه چشمی شفاف مکمل معاینه مستقیم چشمی است. روش معاینه چشمی نیمه شفاف به کمک نور مصنوعی استفاده میشود  ، که می تواند در یک روشن کننده وجود داشته باشد. منبع نور باید نوری  شدتی ارائه دهد که نور را به طور یکنواخت در منطقه یا منطقه تحت بررسی روشن و پخش کند. روشنایی محیط باید طوری باشد که هیچ تابش یا انعکاس سطحی از سطح مورد بررسی وجود نداشته باشد و باید کمتر از نوری باشد که در ناحیه یا ناحیه تحت بازرسی اعمال می شود منبع نور مصنوعی باید شدت کافی را داشته باشد تا بتواند تغییرات ضخامت لمینیشن نیمه شفاف را "CANDELING" کند.
+T-955 کالیبراسیون نورسنج
+کنتور نور باید حداقل سالی یک بار یا هر زمان که تعمیر می شوند کالیبره شوند. اگر کنتورها به مدت 1 سال یا بیشتر مورد استفاده قرار نگرفته باشند، باید قبل از استفاده کالیبره شوند.
+T-980 ارزیابی
+(الف) همه معاینات باید بر اساس استانداردهای پذیرش بخش کد مرجع ارزیابی شوند. (ب) یک چک لیست معاینه باید برای برنامه ریزی معاینه بصری و تأیید انجام مشاهدات بصری مورد نیاز استفاده شود. این چک لیست حداقل الزامات معاینه را تعیین می کند و حداکثر آزمایشی را که سازنده ممکن است در فرآیند انجام دهد را نشان نمی دهد.
+T-990 اسناد
+T-991 گزارش آزمون
+الف) گزارش کتبی معاینه باید حاوی اطلاعات زیر باشد:
+(1) تاریخ معاینه
+(2) فرآیند استفاده شده و ریویژن مورد استفاده
+(3) تکنیک مورد استفاده
+(4) نتایج معاینه
+(5) هویت پرسنل معاینه، و در صورت نیاز توسط بخش کد مرجع، سطح صلاحیت 
+(6) شناسایی قطعه یا جزء بررسی شده
+(ب) حتی اگر ابعاد و غیره در فرآیند معاینه بصری برای کمک به ارزیابی ثبت شد، نیازی به مستنداتی برای هر مشاهده یا بررسی هر ابعاد نیست. مستندات باید شامل تمام مشاهدات و بررسی های ابعادی مشخص شده توسط بخش کد مرجع باشد.
+T-993 نگهداری رکورد
+سوابق باید همانطور که توسط بخش کد مرجع مورد نیاز است نگهداری شود
+</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -115,6 +164,17 @@
   </si>
   <si>
     <t>24. Product Marking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علامت گذاری محصول
+25.1 هر طول لوله باید به طور خوانا با نام یا برند سازنده، شماره مشخصات (سال صدور مورد نیاز نیست) و درجه مشخص شود. علامت گذاری باید تقریباً 12 اینچ [300 میلی متر] از انتهای هر طول لوله شروع شود.
+برای لوله های کمتر از NPS 2 و لوله هایی با طول کمتر از 3 فوت [1 متر]، اطلاعات مورد نیاز ممکن است بر روی برچسبی که به طور ایمن به بسته یا جعبه ای که لوله ها در آن حمل می شوند متصل شده است، علامت گذاری شود.
+25.2 هنگامی که لوله علامت گذاری شده رد شود، تعیین ASTM باید لغو شود.
+25.3 برای لوله های فولادی آستنیتی، رنگ یا جوهر علامت گذاری نباید حاوی فلز مضر یا نمک فلزی مانند روی، سرب یا مس باشد که باعث حمله خورنده در حرارت می شود.
+25.4 لوله هایی که طبق بند 16.1 جوشکاری شده اند باید با علامت WR مشخص شوند.
+25.5 هنگامی که مشخص می شود که برخی از الزامات اسپک مطابق با ASME BOILER و کمیته مخازن تحت فشار باید پس از دریافت متریال توسط خریدار تکمیل شود، سازنده باید نشان دهد که تمام الزامات مشخصات با حرفی مانند X، Y یا Z، بلافاصله بعد از شماره مشخصات تکمیل نشده است. این نامه ممکن است پس از تکمیل کلیه الزامات مطابق با مشخصات حذف شود. توضیحی در مورد الزامات مشخصات برای تکمیل در 24.1 ارائه شده است.
+25.6 کدگذاری نواری - علاوه بر الزامات مندرج در 25.1، 25.2، 25.3، 25.4 و 25.5، کدگذاری نواری به عنوان یک روش شناسایی تکمیلی قابل قبول است. خریدار ممکن است در سفارش یک سیستم بارکدینگ خاص را برای استفاده مشخص کند
+</t>
   </si>
   <si>
     <t>Dimension</t>
@@ -225,6 +285,26 @@
     <t>21. Certified Test Report</t>
   </si>
   <si>
+    <t xml:space="preserve">20. نمونه های آزمایشی
+20.1 نمونه‌های آزمایشی باید از انتهای لوله‌های تمام‌شده با عملیات حرارتی قبل از هر گونه عملیات شکل‌دهی گرفته شوند یا به طول بریده شوند. آنها باید در انتها صاف و عاری از خراش و ایراد باشند، به جز نمونه هایی که برای آزمایش صاف کردن از انتهای محصول ساخته می شوند.
+20.2 نمونه هایی که به صورت طولی یا عرضی بریده شده اند باید برای آزمایش کشش قابل قبول باشند. 20.3 اگر هر نمونه آزمایشی نقص یا ماشینکاری معیوب را نشان دهد، نمونه ممکن است دور انداخته شود و نمونه دیگری جایگزین شود.
+21. الزامات تست صاف کردن
+21.1 لوله ریخته گری بدون درز و گریز از مرکز—بخشی از لوله که طول آن کمتر از 21⁄2 اینچ [63 میلی متر] نباشد باید در دو مرحله به صورت سرد بین صفحات موازی صاف شود. در مرحله اول که آزمایش شکل پذیری است، هیچ ترک یا شکستگی در سطوح داخلی، خارجی یا انتهایی، به جز مواردی که در بند 21-3-4 پیش بینی شده است، نباید رخ دهد تا زمانی که فاصله بین صفحات کمتر از مقدار H باشد. به صورت زیر محاسبه می شود:
+که دراینجا :
+H = فاصله بین صفحات مسطح، اینچ [mm]،
+t = ضخامت دیوار مشخص شده، اینچ [mm]،
+D = مشخص یا محاسبه شده (از قطر داخلی و ضخامت دیوار مشخص شده) قطر خارجی، [mm]، و
+e = تغییر شکل در واحد طول (ثابت برای یک درجه مشخص از فولاد؛ 0.07 برای فولاد کربن متوسط (حداکثر کربن مشخص شده 0.19٪ یا بیشتر)، 0.08 برای فولاد آلیاژی فریتی، 0.09 برای فولاد آستنیتی و 0.09 برای فولاد کم کربن (حداکثر) کربن مشخص شده 0.18٪ یا کمتر)).
+در مرحله دوم، که تست سالم بودن است، صاف کردن باید تا زمانی ادامه یابد که نمونه بشکند یا دیواره های مخالف لوله به هم برسند.
+21.2 لوله جوش داده شده - قسمتی از لوله جوش داده شده به طول حداقل 4 اینچ [100 میلی متر] باید به صورت سرد بین صفحات موازی در دو مرحله صاف شود. جوش باید 90 درجه از جهت نیروی اعمال شده (در نقطه حداکثر خمش) قرار گیرد. در مرحله اول، که آزمایش شکل پذیری است، هیچ ترک یا شکستگی در سطوح داخلی یا خارجی، به جز آنچه در بند 21-3-4 پیش بینی شده است، نباید رخ دهد تا زمانی که فاصله بین صفحات کمتر از مقدار H محاسبه شده توسط معادله باشد. 2. در مرحله دوم که تست سالم بودن است، صاف کردن باید تا زمانی ادامه یابد که نمونه بشکند یا دیواره های مخالف لوله به هم برسند.
+21.3 لوله بدون درز، ریخته گری گریز از مرکز و جوش داده شده:
+21.3.1 شواهدی از مواد لمینت شده یا معیوب یا جوش که در طول کل آزمایش مسطح آشکار می شود باید دلیل رد شود.
+21.3.2 عیوب سطحی که در نمونه آزمایشی قبل از صاف کردن مشهود نیست، اما در مرحله اول آزمایش صاف کردن آشکار شده است، باید مطابق با الزامات پایان مورد قضاوت قرار گیرد.
+21.3.3 پارگی های سطحی ناشی از عیوب سطحی نباید دلیلی برای رد شدن باشد.
+21.3.4 هنگامی که محصولات لوله ای با نسبت D به t پایین آزمایش می شوند، زیرا کرنش تحمیل شده به دلیل هندسه به طور غیرمنطقی در سطح داخلی در مکان های ساعت شش و دوازده زیاد است، ترک در این مکان ها نباید دلیلی برای رد شود. اگر نسبت D به t کمتر از 10 باشد.
+</t>
+  </si>
+  <si>
     <t>Packing &amp; Marking</t>
   </si>
   <si>
@@ -241,6 +321,18 @@
   </si>
   <si>
     <t>A 700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3 علامت گذاری:
+5.3.1 زدن مهر یا رنگ آمیزی شماره حرارت بر روی هر قطعه شل و نشان دادن شماره حرارت بر روی برچسب متصل به هر بالابر ایمن شمش های سایز کوچکتر عملی عادی است. اندازه و وزن سفارش داده شده ممکن است روی حداقل یک تکه از هر اندازه در هنگام حمل شل یا حداقل روی یک قطعه از هر بالابر ایمن نقاشی شود. هر کویل اسکلپ با شماره گرما و اندازه برچسب یا علامت گذاری می شود.
+5.3.2 علامت گذاری رنگ - هیچ کد رنگی به طور کلی برای شناسایی گریدهای فولادی وجود ندارد. در صورت مشخص شدن، علامت گذاری رنگی برای نشان دادن درجه اعمال می شود. در چنین مواردی یک خط رنگ در یک سر قطعات شل کافی است. در مورد بالابرهای ایمن با اندازه های کوچکتر، درجه بر روی برچسب متصل به بالابر یا با یک خط تیره یک رنگ در یک انتهای آسانسور نشان داده می شود.
+5.4 بسته بندی:
+5.4.1 محصولات فولادی نیمه تمام معمولاً بصورت آزاد ارسال می شوند.
+در صورت مشخص شدن، بالابرهای شمش 9 اینچ (58 سانتی‌متر مربع) و سطح مقطع پایین‌تر ممکن است در بالابرهای 5 تنی (4.5 میلی‌گرم) یا سنگین‌تر نصب شوند. محفظه این نوع بسته بندی شامل بست های سیمی نرم یا نوارهای مسطح کشیده می شود. تعداد کراوات مورد استفاده در هر آسانسور خاص را می توان به بهترین وجه با تجربه فرستنده تعیین کرد.
+5.4.2 اسکلت در کویل ها با حداقل دو بند در هر سیم پیچ محکم می شود.
+5.4.3 محصولات فولادی نیمه تمام معمولاً در تجهیزات روباز حمل می شوند و نیازی به محافظت بیشتر در برابر عناصر ندارند.
+5.5 بارگیری-محصولات فولادی نیمه تمام معمولاً به صورت آزاد با اندازه‌ها یا وزن‌های متفاوت حمل می‌شوند. یکپارچه‌سازی به کار و مواد اضافی نیاز دارد.
+</t>
   </si>
 </sst>
 </file>
@@ -617,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -628,7 +720,7 @@
     <col min="7" max="7" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -650,252 +742,270 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1">
+        <v>67</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Book.xlsx
+++ b/Files/Book.xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25009"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="122" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F0A4DC3-7DA1-40A2-8835-69D8D362A627}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\سجاد\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_7EEB400333E2B07A218B7EFDE3AD8E88B348E0D7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6786A64-A383-4A6E-8AE0-B5F4FEC44329}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>Item</t>
   </si>
@@ -71,7 +76,7 @@
     <t>SECTION 5.3</t>
   </si>
   <si>
-    <t>تمام مواد برای کار، که مسئولیت نگهداری انحصاری آن با پیمانکار است، باید مطابق با روش خوب، روی پالت‌ها یا بلوک‌های چوبی، دور از زمین و بالاتر از سطح آب راکد ذخیره شوند. متریال باید در صورت امکان پوشانده شوند. مواد نباید در نزدیکی مکان های عملیاتی مانند تمیز کردن با باد(بلست) یا رنگ آمیزی نگهداری شوند که ممکن است باعث شود رسوبات نامطلوبی بر روی مواد ایجاد شود. پیمانکار باید تمام مواد برای کار را در مناطقی جدا از مواد اضافی یا ضایعات ذخیره کند. برای شیرها باید دقت و مراقبت ویژه ای انجام شود. شیرهای توپی باید در مکانی تمیز و سرپوشیده نگهداری شوند. پلاگ های آنها باید همیشه در حالت باز نگه داشته شود، تا آخرین لحظه قبل از نصب انها.</t>
+    <t>[[[SECTION 5.3.JPG]]] تمام مواد برای کار، که مسئولیت نگهداری انحصاری آن با پیمانکار است، باید مطابق با روش خوب، روی پالت‌ها یا بلوک‌های چوبی، دور از زمین و بالاتر از سطح آب راکد ذخیره شوند. متریال باید در صورت امکان پوشانده شوند. مواد نباید در نزدیکی مکان های عملیاتی مانند تمیز کردن با باد(بلست) یا رنگ آمیزی نگهداری شوند که ممکن است باعث شود رسوبات نامطلوبی بر روی مواد ایجاد شود. پیمانکار باید تمام مواد برای کار را در مناطقی جدا از مواد اضافی یا ضایعات ذخیره کند. برای شیرها باید دقت و مراقبت ویژه ای انجام شود. شیرهای توپی باید در مکانی تمیز و سرپوشیده نگهداری شوند. پلاگ های آنها باید همیشه در حالت باز نگه داشته شود، تا آخرین لحظه قبل از نصب انها.</t>
   </si>
   <si>
     <t>visual inspection</t>
@@ -93,7 +98,10 @@
 VISUAL EXAMINATION</t>
   </si>
   <si>
-    <t xml:space="preserve">(الف) این بند شامل روش‌ها و الزامات بازرسی چشمی است که زمانی که توسط بخش کد ارجاع‌دهنده مشخص می‌شود، قابل اعمال است. روش های ویژه بازرسی چشمی مورد نیاز برای هر نوع معاینه در این مقاله گنجانده نشده است، زیرا برنامه های کاربردی زیادی وجود دارد که در آنها معاینه چشمی مورد نیاز است. برخی از نمونه‌های این برنامه‌ها شامل تست های غیرمخرب هستند.معاینات، تست نشت، معاینات حین سرویس و مراحل ساخت.
+    <t xml:space="preserve">[[[2.JPG]]]
+[[[2-1.JPG]]]
+[[[2-1.JPG]]]
+(الف) این بند شامل روش‌ها و الزامات بازرسی چشمی است که زمانی که توسط بخش کد ارجاع‌دهنده مشخص می‌شود، قابل اعمال است. روش های ویژه بازرسی چشمی مورد نیاز برای هر نوع معاینه در این مقاله گنجانده نشده است، زیرا برنامه های کاربردی زیادی وجود دارد که در آنها معاینه چشمی مورد نیاز است. برخی از نمونه‌های این برنامه‌ها شامل تست های غیرمخرب هستند.معاینات، تست نشت، معاینات حین سرویس و مراحل ساخت.
 (ب) الزامات بند 1، الزامات عمومی، زمانی اعمال می شود که معاینه چشمی، مطابق با بند 9، توسط بخش کد مرجع مورد نیاز باشد.
 ج) تعاریف اصطلاحات برای بازرسی چشمی در بند 1، پیوست اجباری I، I-121.6، VT - معاینه چشمی آمده است.
 T-920  عمومی
@@ -166,7 +174,8 @@
     <t>24. Product Marking</t>
   </si>
   <si>
-    <t xml:space="preserve">علامت گذاری محصول
+    <t xml:space="preserve">[[[4.JPG]]]
+علامت گذاری محصول
 25.1 هر طول لوله باید به طور خوانا با نام یا برند سازنده، شماره مشخصات (سال صدور مورد نیاز نیست) و درجه مشخص شود. علامت گذاری باید تقریباً 12 اینچ [300 میلی متر] از انتهای هر طول لوله شروع شود.
 برای لوله های کمتر از NPS 2 و لوله هایی با طول کمتر از 3 فوت [1 متر]، اطلاعات مورد نیاز ممکن است بر روی برچسبی که به طور ایمن به بسته یا جعبه ای که لوله ها در آن حمل می شوند متصل شده است، علامت گذاری شود.
 25.2 هنگامی که لوله علامت گذاری شده رد شود، تعیین ASTM باید لغو شود.
@@ -213,7 +222,36 @@
     <t>ASTM/ASME</t>
   </si>
   <si>
-    <t>A 370 / SA 182</t>
+    <t xml:space="preserve">A 370 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[[6p1.JPG]]]
+[[[6p2.JPG]]]
+[[[6p3.JPG]]]
+تست سختی
+16. عمومی
+16.1 آزمون سختی وسیله ای برای تعیین مقاومت در برابر نفوذ است و گاهی اوقات برای به دست آوردن تقریب سریع مقاومت کششی استفاده می شود. جداول 2-5 برای تبدیل اندازه گیری سختی از یک مقیاس به مقیاس دیگر یا استحکام کششی تقریبی است. این مقادیر تبدیل از منحنی های کامپیوتری به دست آمده اند و با نزدیکترین نقطه 0.1 ارائه شده اند تا امکان بازتولید دقیق آن منحنی ها را فراهم کنند. تمام مقادیر سختی تبدیل شده باید تقریبی در نظر گرفته شوند. تمام اعداد سختی راکول و ویکرز تبدیل شده باید به نزدیکترین عدد صحیح گرد شوند.
+16.2 تست سختی:
+16.2.1 اگر اسپک محصول اجازه آزمایش سختی جایگزین را برای تعیین انطباق با الزامات سختی را بدهد، باید از تبدیل های فهرست شده در جداول 2-5 استفاده شود.
+16.2.2 هنگام ثبت اعداد سختی تبدیل شده، سختی اندازه گیری شده و مقیاس آزمون باید در داخل پرانتز نشان داده شود، به عنوان مثال: 353 HBW (38 HRC). این بدان معناست که مقدار سختی 38 با استفاده از مقیاس Rockwell C به دست آمد و به سختی برینل 353 تبدیل شد.
+17. تست برینل
+17.1 توضیحات:
+17.1.1 یک بار مشخص از طریق یک توپ کاربید تنگستن با قطر مشخص به سطح صافی از نمونه مورد آزمایش اعمال می شود. قطر متوسط فرورفتگی به عنوان مبنایی برای محاسبه عدد سختی برینل استفاده می شود.
+ضریب بار اعمال شده تقسیم بر مساحت سطح فرورفتگی که کروی فرض می شود، مطابق با معادله زیر، عدد سختی برینل (HBW) نامیده می شود:
+[[[6.JPG]]]
+در اینجا:
+HBW = عدد سختی برینل،
+P = بار اعمال شده، kgf،
+D = قطر توپ کاربید تنگستن، میلی متر و
+d = متوسط قطر فرورفتگی، میلی متر
+یادداشت 12-عدد سختی برینل به راحتی از جداول استانداردی مانند جدول 6 که اعداد مربوط به قطرهای مختلف فرورفتگی را نشان می‌دهد، معمولاً با افزایش 0.05 میلی‌متر نشان می‌دهد.
+یادداشت 13- در روش آزمون E10 مقادیر بر حسب واحد SI بیان شده است، در حالی که در این بخش از واحدهای کیلوگرم بر متر استفاده می شود.
+17.1.2 آزمایش استاندارد برینل با استفاده از یک توپ کاربید تنگستن 10 میلی متری، بار 3000 کیلوگرمی را برای مواد سخت و بار 1500 یا 500 کیلوگرمی را برای مقاطع نازک یا مواد نرم به کار می گیرد (پیوست A2 در مورد محصولات لوله فولادی را ببینید). در صورت مشخص شدن ممکن است از بارهای دیگر و تورفتگی با اندازه های مختلف استفاده شود. در ثبت مقادیر سختی، قطر توپ و بار باید ذکر شود مگر در مواردی که از توپ 10 میلی متری و بار 3000 کیلوگرمی استفاده می شود.
+17.1.3 طیفی از سختی را می توان به درستی فقط برای مواد کونچ شده و تمپر شده یا نرمال و تمپر شده مشخص کرد. برای مواد آنیل شده فقط یک عدد حداکثر باید مشخص شود. برای مواد نرمال شده یک حداقل یا حداکثر سختی ممکن است با توافق مشخص شود. به طور کلی، هیچ الزامات سختی نباید برای مواد تصفیه نشده اعمال شود.
+17.1.4 ممکن است سختی برینل زمانی مورد نیاز باشد که خواص کششی مشخص نشده باشد.
+17.2 دستگاه - تجهیزات باید شرایط زیر را برآورده کنند:   
+(PAGE 12) TABLE 2 Approximate Hardness Conversion Numbers for Nonaustenitic SteelsA (Rockwell C to Other Hardness Numbers)
+</t>
   </si>
   <si>
     <t>NDT</t>
@@ -228,7 +266,235 @@
     <t>تست اولتراسونیک (UT)، تست مغناطیسی (MT)، تست نافذ (PT) باید با ابزار کالیبره شده و بر اساس روش تایید شده NDT یا استاندارد مربوطه انجام شود.</t>
   </si>
   <si>
-    <t xml:space="preserve">Article 2 Radiographic Examination   Article 4 Ultrasonic Examination Methods for Welds                                     Article 6 Liquid Penetrant Examination       Article 7 Magnetic Particle Examination                                             </t>
+    <t xml:space="preserve">Article 2 Radiographic Examination|||   Article 4 Ultrasonic Examination Methods for Welds                                 |||    Article 6 Liquid Penetrant Examination  |||     Article 7 Magnetic Particle Examination                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[[ARTICLE2P1.JPG]]]
+[[[ARTICLE2P2.JPG]]]
+[[[ARTICLE2P3.JPG]]]
+[[[ARTICLE2P4.JPG]]]
+ماده 2
+بازرسی رادیوگرافی
+T-210  هدف
+روش رادیوگرافی تشریح شده در این ماده برای بررسی مواد از جمله ریخته گری و جوش باید همراه با ماده 1 الزامات عمومی استفاده شود. تعاریف اصطلاحات استفاده شده در این مقاله در ماده 1، پیوست اجباری I، I-121.1، RT — رادیوگرافی آمده است.
+برخی الزامات اسپک محصول، اسپک تکنیک  و اسپک کاربرد  نیز در سایر ضمائم اجباری این ماده، همانطور که در فهرست مندرجات فهرست شده است، آورده شده است. همچنین  این الزامات اضافی زمانی که یک ضمیمه(Appendix) برای معاینه رادیوگرافی یا رادیوسکوپی در حال انجام اعمال می شود، باید رعایت شود.
+T-220 الزامات عمومی
+T-221 الزامات رویه
+T-221.1 روش پروسیجر. معاینه رادیوگرافی باید طبق یک روش پروسیجر انجام شود. هر روش باید حداقل شامل اطلاعات زیر در صورت لزوم باشد:
+(الف) نوع مواد و محدوده ضخامت
+(ب) ایزوتوپ یا حداکثر ولتاژ اشعه ایکس مورد استفاده
+(ج) فاصله منبع تا شی (D در T-274.1)
+(د) فاصله از سمت منبع جسم تا فیلم (d در T-274.1)
+(ه) اندازه منبع (F در T-274.1)
+(و) برند و نام فیلم
+(ز) صفحه نمایش استفاده شده.
+T-221.2 نمایش روش.  نشان دادن تراکم و شاخص کیفیت تصویر (IQI) الزامات تصویری روش مکتوب در رادیوگرافی های تولیدی یا تکنیکی باید به عنوان شواهد رضایت بخشی از انطباق با آن روش در نظر گرفته شود.
+T-222 آماده سازی سطح
+T-222.1 متریال از جمله ریخته گری. سطوح باید الزامات مشخصات مواد مربوطه یا بخش کد اسپک را برآورده کنند،در صورت لزوم، با هر فرآیند مناسب ،به حدی که تصاویر بی نظمی های سطحی نتوانند ماسک کنند یا با تصویر ناپیوستگی در رادیوگرافی حاصل اشتباه گرفته شوند.
+T-222.2 جوش . موج‌های جوش یا بی‌نظمی‌های سطح جوش در داخل (در صورت دسترسی) و خارج باید با هر فرآیند مناسبی حذف شوند تا تصاویر بی‌نظمی‌های سطحی نتوانند ماسک کنند یا با تصویر ناپیوستگی در رادیوگرافی حاصل اشتباه گرفته شوند. سطح تمام شده تمام اتصالات جوش داده شده لب به لب ممکن است همسطح با مواد پایه باشد یا ممکن است تاج های نسبتاً یکنواختی داشته باشد، تقویت  نباید بیشتر از  آنچه در بخش کد مرجع ذکر شده است باشد.
+T-223 تابش پراکندگی به عقب
+نماد سرب "B" با حداقل ابعاد 7/16 اینچ (11 میلی متر) در ارتفاع و 1/16 اینچ (1.5 میلی متر) در ضخامت، باید به پشت هر نگهدارنده فیلم در طول هر نوردهی وصل شود تا اگر تشعشعات پس پراکنده فیلم را در معرض دید قرار دهد کاملا مشخص باشد،. در صورت لزوم  نماد سرب "B" باید در مکانی قرار گیرد که در ناحیه ای از رادیوگرافی ظاهر شود که مطابق با الزامات T-282، VIII-288، یا IX-288،.
+T-224 سیستم شناسایی
+یک سیستم باید برای ایجاد شناسایی دائمی در هر رادیوگرافی قابل ردیابی به قرارداد، جزء، جوش یا درز جوش، یا شماره قطعه، در صورت لزوم استفاده شود. علاوه بر این، نماد یا نام سازنده و تاریخ رادیوگرافی باید به طور واضح و دائمی در رادیوگرافی درج شود.
+نام یا نماد پیمانکار فرعی NDE نیز ممکن است همراه با نام سازنده استفاده شود. این سیستم شناسایی لزوماً نیازی به نمایش اطلاعات به صورت تصاویر رادیوگرافی ندارد. در هر صورت، این اطلاعات نباید حوزه مورد نظر را مبهم کند.
+T-225 محدودیت های تراکم پایش رادیوگرافی ها
+برای قضاوت در مورد چگالی فیلم باید از یک تراکم سنج یا دانسیتومتر استفاده شود
+T-226 میزان سطح مورد تست
+وسعت معاینه رادیوگرافی باید همانگونه باشد که در بخش کد مرجع مشخص شده است.
+T-230 تجهیزات و مواد
+T-231  فیلم
+ T-231.1 انتخاب. رادیوگرافی باید با استفاده از فیلم رادیوگرافی صنعتی انجام شود.
+T-231.2 پردازش. راهنمای استاندارد برای کنترل کیفیت پردازش فیلم رادیوگرافی صنعتی، SE-999، یا بخش‌های 23 تا 26 راهنمای استاندارد برای معاینه رادیوگرافی، SE-94، ممکن است به‌عنوان راهنما برای پردازش فیلم استفاده شود، با این تفاوت که بخش 8.1 از SE-999 مورد نیاز نیست.
+T-232 صفحه نمایش تشدید کننده
+هنگام انجام معاینه رادیوگرافی مطابق با این ماده می توان از صفحه های تشدید کننده استفاده کرد.
+T-233  طراحی نشانگر کیفیت تصویر (IQI).
+T-233.1 طراحی استاندارد IQI. IQI باید از نوع سوراخ یا سیم باشد. IQIهای نوع سوراخ باید مطابق با الزامات یا جایگزین های مجاز در SE-1025 ساخته و شناسایی شوند. IQIهای نوع سیم باید مطابق با الزامات یا جایگزین های مجاز در SE-747 ساخته و شناسایی شوند، با این تفاوت که بزرگترین شماره سیم یا شماره شناسایی ممکن است حذف شود. IQIهای استاندارد ASME باید شامل موارد موجود در جدول T-233.1 برای نوع سوراخ و موارد موجود در جدول T-233.2 برای نوع سیم باشد.
+[[[ARTICLE21.JPG]]]
+[[[ARTICLE22.JPG]]]
+T-233.2 طراحی IQI جایگزین. IQIهایی که مطابق با سایر استانداردهای ملی یا بین‌المللی طراحی و ساخته شده‌اند، می‌توانند به شرط الزامات (الف) یا (ب) زیر و رعایت الزامات مواد T-276.1 مورد استفاده قرار گیرند.
+(الف) IQI نوع سوراخ. حساسیت IQI معادل محاسبه شده (EPS)، در SE-1025، ضمیمه X1، برابر یا بهتر از IQI نوع سوراخ استاندارد مورد نیاز است.
+(ب) IQI نوع سیم. قطر سیم اصلی IQI سیم جایگزین برابر یا کمتر از سیم ضروری استاندارد IQI است.
+T-234 امکانات برای مشاهده رادیو گرافی
+امکانات مشاهده باید نور پس‌زمینه‌ای را با شدتی فراهم کند که باعث ایجاد انعکاس، سایه‌ها یا خیرگی در رادیوگرافی نشود که در فرآیند تفسیر اختلال ایجاد کند. تجهیزات مورد استفاده برای مشاهده رادیوگرافی برای تفسیر باید منبع نور متغیر کافی برای سوراخ IQI ضروری یا تعیین شده را فراهم کند.
+سیم برای محدوده چگالی مشخص شده قابل مشاهده باشد. شرایط مشاهده باید به گونه ای باشد که نور از اطراف لبه بیرونی رادیوگرافی یا عبور از بخش های کم تراکم رادیوگرافی در تفسیر اختلال ایجاد نکند.
+T-260 کالیبراسیون
+T-261 اندازه منبع
+T-261.1 تأیید اندازه منبع. اسپک سازنده یا تأمین‌کننده تجهیزات، مانند دستورالعمل‌های فنی، منحنی‌های پوسیدگی، یا اظهارات مکتوب مستندکننده اندازه واقعی یا حداکثر منبع یا نقطه کانونی، باید به عنوان تأیید اندازه منبع قابل قبول باشد.
+T-261.2 تعیین اندازه منبع. زمانی که اسپک سازنده یا تامین کننده در دسترس نباشد، اندازه منبع ممکن است به صورت زیر تعیین شود:
+(الف) ماشین های اشعه ایکس. برای ماشین‌های اشعه ایکس که در 1000 کیلوولت و کمتر کار می‌کنند، اندازه نقطه کانونی ممکن است مطابق با SE-1165، روش تست استاندارد برای اندازه‌گیری نقاط کانونی لوله‌های پرتو ایکس صنعتی با تصویربرداری پین‌هول تعیین شود.
+(ب) منابع Iridium-192. برای Iridium-192، اندازه منبع ممکن است مطابق با SE-1114، روش تست استاندارد برای تعیین اندازه کانونی منابع رادیوگرافی صنعتی Iridium-192 تعیین شود.
+T-262 تراکم سنج و گوه پله(STEP WEDGE)
+فیلم مقایسه
+T-262.1 تراکم سنج. تراکم‌سنج‌ها باید حداقل هر 3 ماه در طول استفاده به شرح زیر کالیبره شوند:
+(الف) یک قرص پله استاندارد ملی یا یک فیلم کالیبراسیون گوه پله، قابل ردیابی به یک قرص پله استاندارد ملی و دارای حداقل پنج پله با چگالی خنثی از حداقل 1.0 تا 4.0، باید استفاده شود. فیلم کالیبراسیون گوه پله باید در سال گذشته با مقایسه با یک قرص پله استاندارد ملی تأیید شود، مگر اینکه، قبل از اولین استفاده، در بسته بندی مهر و موم شده ضد نور و ضدآب اصلی که توسط سازنده ارائه شده است نگهداری شود. فیلم های کالیبراسیون گوه پله ای را می توان بدون تایید به مدت یک سال پس از باز کردن استفاده کرد، مشروط بر اینکه در مدت زمان ماندگاری اعلام شده سازنده باشد.
+(ب) دستورالعمل های گام به گام سازنده تراکم سنج برای عملکرد چگالی سنج باید به شرح زیر باشد.
+(ج) مراحل تراکم نزدیک به 1.0، 2.0، 3.0، و 4.0 در قرص پله استاندارد ملی یا فیلم کالیبراسیون گوه پله باید خوانده شود.
+(د) تراکم سنج قابل قبول است اگر قرائت های چگالی بیش از 0.05 ± واحد چگالی از چگالی واقعی بیان شده در قرص استاندارد ملی پله یا فیلم کالیبراسیون گوه پله متفاوت باشد.
+ T-262.2  گوه پله Step Wedge فیلم های مقایسه ای. فیلم های مقایسه گوه پله باید قبل از اولین استفاده تأیید شوند، مگر اینکه توسط سازنده انجام شود، به شرح زیر:
+(الف) چگالی پله ها روی یک فیلم مقایسه گوه پله باید توسط یک چگالی سنج کالیبره شده تأیید شود.
+(ب) فیلم مقایسه گوه پله در صورتی قابل قبول است که قرائت های چگالی بیش از 0.1 ± واحد چگالی از چگالی بیان شده در فیلم مقایسه گوه پله تغییر نکند.
+T-262.3. تأیید دوره ای
+الف) تراکم سنج. بررسی‌های دوره‌ای تأیید کالیبراسیون باید همانطور که در T-262.1 توضیح داده شده است، در ابتدای هر شیفت، پس از 8 ساعت استفاده مداوم، یا پس از تغییر روزنه‌ها، هر کدام که زودتر اتفاق بیفتد، انجام شود.
+(ب) فیلم های مقایسه ای گام گوه. بررسی های راستی آزمایی باید سالانه به ازای T-262.2 انجام شود.
+T-262.4 مستندات.
+الف) تراکم سنج. کالیبراسیون های تراکم سنج مورد نیاز توسط T-262.1 باید مستند شود، اما قرائت های واقعی برای هر مرحله لازم نیست ثبت شود. بررسی های دوره ای تأیید چگالی سنج مورد نیاز T-262.3(a) لازم نیست مستند باشد.
+(ب) فیلم های کالیبراسیون گوه پله. تأییدیه‌های فیلم کالیبراسیون گوه پله‌ای که توسط T-262.1(a) مورد نیاز است باید مستند شود، اما خوانش‌های واقعی برای هر مرحله لازم نیست ثبت شود.
+(ج) فیلم های مقایسه ای گام گوه. تأیید فیلم مقایسه گوه مرحله ای مورد نیاز توسط T-262.2 و T-262.3 (b) باید مستند باشد، اما قرائت های واقعی برای هر مرحله لازم نیست ثبت شود.
+T-270 معاینه
+T-271  تکنیک های رادیوگرافی
+هر زمان که عملی باشد، باید از تکنیک نوردهی تک جداره برای رادیوگرافی استفاده شود. هنگامی که استفاده از تکنیک تک جداره عملی نیست، باید از تکنیک دو جداره استفاده شود. برای نشان دادن اینکه پوشش مورد نیاز به دست آمده است، باید تعداد کافی نوردهی انجام شود.
+T-271.1 تکنیک تک جداره.
+در تکنیک تک جداره(دیواره)، تابش فقط از یک دیواره جوش (مواد) عبور می کند که برای پذیرش در رادیوگرافی مشاهده می شود.
+T-271.2 تکنیک دو جداره. هنگامی که استفاده از تکنیک تک جداره عملی نیست، باید از یکی از تکنیک های دو جداره زیر استفاده شود.
+(الف) مشاهده تک دیواری. برای مواد و برای جوش در قطعات، ممکن است تکنیکی استفاده شود که در آن تشعشع از دو دیواره عبور می‌کند و فقط جوش (مواد) روی دیواره طرف فیلم برای پذیرش در رادیوگرافی مشاهده می‌شود. هنگامی که پوشش کامل برای جوش های محیطی (مواد) مورد نیاز است، باید حداقل سه نوردهی 120 درجه با یکدیگر انجام شود.
+(ب) مشاهده دو دیواره. برای مواد و برای جوش در اجزای 3 1/2 اینچ (89 میلی متر) یا کمتر در قطر خارجی اسمی، ممکن است تکنیکی استفاده شود که در آن تشعشع از دو دیوار عبور می کند و جوش (مواد) در هر دو دیوار برای پذیرش مشاهده می شود. در همان رادیوگرافی. برای مشاهده دو جداره، فقط باید از IQI سمت منبع استفاده شود.
+(1) برای جوش‌ها، پرتو تشعشع ممکن است از صفحه جوش با زاویه کافی برای جدا کردن تصاویر قسمت‌های سمت منبع و قسمت‌های سمت لایه جوش منحرف شود تا مناطقی که باید تفسیر شوند همپوشانی نداشته باشند. در صورت نیاز به پوشش کامل، حداقل دو نوردهی 90 درجه با یکدیگر باید باشد
+برای هر مفصل ساخته شده است.
+(2) به عنوان یک جایگزین، جوش ممکن است با پرتو تابش به گونه ای قرار گیرد که تصاویر هر دو دیوار روی هم قرار گیرند. در صورت نیاز به پوشش کامل، حداقل سه نوردهی در دمای 60 یا 120 درجه با یکدیگر باید برای هر مفصل انجام شود.
+(3) در صورتی که پوشش رادیوگرافی مورد نیاز را نتوان با استفاده از حداقل تعداد مواجهه های ذکر شده در (1) یا (2) بالا به دست آورد، قرار گرفتن در معرض اضافی انجام می شود.
+T-272  انرژی تشعشعی
+انرژی تشعشعی به کار رفته برای هر تکنیک رادیوگرافی باید چگالی و تصویر IQI مورد نیاز این ماده را بدست آورد.
+T-273 جهت تابش
+جهت پرتو مرکزی تشعشع باید هر زمان که عملی باشد، بر ناحیه مورد نظر متمرکز شود.
+|||
+[[[ARTICLE41.JPG]]]
+[[[ARTICLE42.JPG]]]
+[[[ARTICLE43.JPG]]]
+470 معاینه
+T-471 الزامات آزمون عمومی
+ T-471.1 معاینه پوشش. حجم مورد اسکن باید با حرکت دادن واحد جستجو بر روی سطح اسکن بررسی شود تا کل حجم معاینه برای هر واحد جستجوی مورد نیاز به صورت کامل اسکن شود.
+(الف) هر عبور از واحد جستجو باید حداقل 10٪ از ابعاد مبدل (عنصر پیزوالکتریک) موازی با جهت نمایه سازی اسکن همپوشانی داشته باشد. به عنوان یک جایگزین، اگر ابعاد پرتو صوت موازی با جهت نمایه سازی اسکن مطابق با ضمیمه غیراجباری B، B-466، قوانین اندازه گیری گسترش پرتو اندازه گیری شود، هر عبور از واحد جستجو ممکن است همپوشانی حداقل ابعاد پرتو تعیین شده را ایجاد کند.
+(ب) در صورتی که بتوان نشان داد که همپوشانی انجام شده است، نوسان واحد جستجو مجاز است.
+T-471.2 نرخ تکرارپالس. سرعت تکرار پالس باید به اندازه کافی کوچک باشد تا اطمینان حاصل شود که یک سیگنال از یک بازتابنده واقع در بیشترین فاصله در حجم مورد بازرسی قبل از قرار دادن پالس بعدی روی مبدل به واحد جستجو باز می گردد.
+T-471.3 نرخ حرکت واحد جستجو.
+سرعت حرکت واحد جستجو (سرعت اسکن) نباید از 6 اینچ در ثانیه (150 میلی متر بر ثانیه) تجاوز کند، مگر اینکه:
+(الف) نرخ تکرار پالس ابزار اولتراسونیک کافی است تا واحد جستجو را حداقل شش بار در مدت زمان لازم برای حرکت دادن نیمی از ابعاد مبدل (عنصر پیزوالکتریک) به موازات جهت اسکن با حداکثر سرعت اسکن، پالس کند. یا،
+(ب) یک کالیبراسیون دینامیکی روی بازتابنده‌های متعدد انجام می‌شود که در 2 دسی‌بل کالیبراسیون استاتیک هستند و نرخ تکرار پالس الزامات T-471.2 را برآورده می‌کند.
+T-471.4 سطح حساسیت اسکن.
+T-471.4.1 تکنیک های فاصله – دامنه. سطح حساسیت اسکن باید حداقل 10 از 6 دسی بل بالاتر از تنظیم بهره سطح مرجع تنظیم شود، یا زمانی که از تکنیک نیمه اتوماتیک یا خودکار استفاده می شود، ممکن است در سطح مرجع تنظیم شود.
+T-471.4.2 تکنیک های غیر دامنه.
+سطح بهره مورد استفاده برای اسکن باید برای پیکربندی مورد بررسی مناسب باشد و باید بتواند بازتابنده های کالیبراسیون را با حداکثر سرعت اسکن تشخیص دهد.
+T-471.5 آماده سازی سطح. هنگامی که ماده پایه یا سطح جوش در معاینه تداخل ایجاد می کند، ماده پایه یا جوش باید در صورت نیاز برای اجازه آزمایش آماده شود.
+T-471.6 ضبط داده های اولتراسونیک. داده های اولتراسونیک برای تکنیک های نیمه اتوماتیک و اتوماتیک باید به صورت پردازش نشده و بدون آستانه ثبت شوند. دروازه‌بندی داده‌ها صرفاً برای ضبط حجم معاینه مجاز است، مشروط بر اینکه از طرح اسکن برای تعیین تنظیمات دروازه استفاده شود.
+|||
+[[[Article6p1.JPG]]]
+[[[Article6p2.JPG]]]
+[[[Article6p3.JPG]]]
+[[[Article6p4.JPG]]]
+[[[Article6p5.JPG]]]
+[[[Article6p6.JPG]]]
+[[[Article6p7.JPG]]]
+[[[Article6p8.JPG]]]
+[[[Article6p9.JPG]]]
+[[[Article6p10.JPG]]]
+EXAMINATION T-670  
+T-671 برنامه نافذ
+این ماده نافذ را می توان با هر وسیله مناسبی مانند غوطه ور کردن، مسواک زدن یا اسپری کردن اعمال کرد. اگر ماده نافذ با پاشش با استفاده از اسپری اعمال شود، فیلترها باید در سمت بالادست نزدیک ورودی هوا قرار داده شوند تا از آلودگی ماده نافذ توسط روغن، آب، خاک یا رسوبی که ممکن است در خطوط جمع شده باشد جلوگیری شود.
+T-672  زمان نفوذ (DWELL)
+زمان نفوذ (DWELL) بسیار حیاتی است. حداقل زمان نفوذ باید همانطور که در جدول T-672 لازم است یا مطابق با نمایش برای کاربردهای خاص باشد. حداکثر زمان ماندگاری نباید از 2 ساعت تجاوز کند یا مطابق با نمایش برای کاربردهای خاص باشد. صرف نظر از طول مدت ماندگاری، ماده نافذ نباید خشک شود. اگر به هر دلیلی ماده نافذ خشک شود، روش معاینه باید با تمیز کردن سطح معاینه تکرار شود.
+T-673 حذف نافذ اضافی
+پس از سپری شدن زمان نفوذ مشخص شده، هر گونه ماده نافذ باقیمانده روی سطح باید حذف شود و دقت شود که حذف نافذ از ناپیوستگی ها به حداقل برسد.
+مواد نفوذی قابل شستشو با آب T-673.1.
+(الف) مواد نافذ اضافی قابل شستشو با آب باید با اسپری آب حذف شوند. فشار آب نباید از 50 psi (350 کیلو پاسکال) تجاوز کند و دمای آب نباید از 110 درجه فارنهایت (43 درجه سانتیگراد) تجاوز کند.
+(ب) به عنوان جایگزینی برای (الف)، مواد نافذ قابل شستشو با آب را می توان با پاک کردن با یک پارچه تمیز، خشک و بدون پرز یا کاغذ جاذب پاک کرد و این عمل را تا زمانی که بیشتر آثار نافذ پاک شود تکرار کنید. آثار باقیمانده باید با پاک کردن سطح با پارچه یا کاغذ جاذب، که کمی با آب مرطوب شده است، پاک شود.
+برای به حداقل رساندن حذف ماده نافذ از ناپیوستگی ها، باید مراقب بود که استفاده از آب اضافی جلوگیری شود.
+T-673.2 مواد نافذ پس از امولسیون.
+(الف) امولسیون لیپوفیلیک. پس از زمان ماندن ماده نافذ مورد نیاز، مازاد نافذ سطحی باید با غوطه ور کردن یا غرقاب کردن قسمت با امولسیفایر امولسیون شود. زمان امولسیون سازی به نوع امولسیون کننده و شرایط سطح بستگی دارد. زمان واقعی امولسیون سازی باید به صورت تجربی تعیین شود. پس از امولسیون کردن، مخلوط باید با غوطه ور کردن در آب یا شستشو با آب حذف شود. دما و فشار آب باید طبق توصیه سازنده باشد.
+(ب) امولسیون سازی هیدروفیل. پس از مدت زمان ماندگاری نافذ مورد نیاز، قطعات را می توان با اسپری آب یا غوطه ور شدن مستقیم با مخلوط امولسیفایر-آب شستشو داد. پیش شستشو اجازه می دهد تا مواد نافذ سطح اضافی را از اشیاء معاینه قبل حذف کنید
+برای استفاده از امولسیفایرهای آبدوست امولسیفایرهای هیدروفیل با عملکرد شوینده عمل می کنند. برای کاربردهای غوطه وری، اجسام معاینه باید به صورت مکانیکی در حمام امولسیفایر حرکت داده شوند یا امولسیفایر باید توسط حباب های هوا به هم زده شود، به طوری که در هر روش، امولسیفایر با پوشش نافذ تماس پیدا کند.
+با غوطه وری، غلظت حمام آب امولسیفایر باید مطابق توصیه سازنده باشد. برای کاربردهای اسپری، تمام سطوح قطعات باید به طور یکنواخت با مخلوط امولسیفایر-آب اسپری شوند.
+با استفاده از اسپری، غلظت امولسیفایر باید مطابق با توصیه های سازنده باشد، اما نباید بیشتر از 5٪ باشد. مرحله آخر پس از امولسیون کردن، غوطه وری در آب یا اسپری آب پس از شستشو برای حذف ماده نافذ امولسیون شده است. تمام زمان های اقامت باید به حداقل برسد و باید باشد
+بیش از 2 دقیقه نیست مگر اینکه زمان بیشتری برای یک قطعه خاص تعیین شده باشد. فشارها (امولسیفایر آب و اسپری آب) و دما (آب و امولسیفایر) باید مطابق با الزامات مواد نافذ قابل شستشو با آب باشد.
+توجه: اطلاعات اضافی ممکن است از SE-165 به دست آید.
+[[[Article61.JPG]]]
+T-673.3 مواد نافذ قابل جابجایی حلال. مازاد مواد نافذ قابل جابجایی حلال باید با پاک کردن با یک پارچه تمیز، خشک و بدون پرز یا کاغذ جاذب پاک شوند و این عمل تا زمانی که بیشتر آثار نافذ پاک شود تکرار شود. باقی مانده آثار باید با پاک کردن سطح با پارچه یا کاغذ جاذب، به آرامی پاک شود
+مرطوب شده با حلال برای به حداقل رساندن حذف ماده نافذ از ناپیوستگی ها، باید مراقب بود که از استفاده از حلال اضافی اجتناب شود.
+هشدار: شستشوی سطح با حلال، پس از استفاده از ماده نافذ و قبل از توسعه، ممنوع است.
+T-674 خشک کردن پس از حذف بیش از حد
+ (الف) برای روش قابل شستشو با آب یا پس از امولسیون کردن، سطوح را می توان با لکه کردن با مواد تمیز یا با استفاده از هوای در گردش خشک کرد، مشروط بر اینکه دمای سطح از 125 درجه فارنهایت (52 درجه سانتیگراد) بالاتر نرود.
+(ب) برای روش قابل جابجایی با حلال، سطوح ممکن است با تبخیر معمولی، لکه، پاک کردن، یا هوای اجباری خشک شوند.
+T-675 دولاپینگ
+توسعه دهنده(دولاپر) باید در اسرع وقت پس از حذف نافذ اعمال شود. فاصله زمانی تعیین شده در روش تجاوز نمی کند. ضخامت پوشش ناکافی ممکن است نافذ را از ناپیوستگی خارج نکند. برعکس، ضخامت بیش از حد پوشش ممکن است نشانه ها را پنهان کند
+با نافذهای(پنترنت های) کنتراست رنگ، فقط باید از یک توسعه دهنده مرطوب استفاده شود. با نافذهای فلورسنت، ممکن است از یک توسعه دهنده مرطوب یا خشک استفاده شود.
+T-675.1. Dry Developer Application
+  توسعه دهنده خشک باید فقط روی یک سطح خشک توسط یک برس نرم، لامپ پودر دستی، تفنگ پودر یا وسایل دیگر اعمال شود، مشروط بر اینکه پودر به طور یکنواخت در کل سطح مورد بررسی گردگیری شود.
+برنامه توسعه دهنده مرطوب T-675.2.
+ قبل از اعمال توسعه دهنده مرطوب از نوع تعلیق بر روی سطح، توسعه دهنده باید کاملاً هم زده شود تا از پراکندگی کافی ذرات معلق اطمینان حاصل شود.
+(الف) برنامه توسعه دهنده آبی. توسعه دهنده آبی ممکن است بر روی سطح مرطوب یا خشک اعمال شود. باید با غوطه ور کردن، برس زدن، پاشش یا وسایل دیگر اعمال شود، مشروط بر اینکه یک پوشش نازک روی کل سطح مورد بررسی به دست آید. زمان خشک شدن را می توان با استفاده از هوای گرم کاهش داد، مشروط بر اینکه دمای سطح قطعه از 125 درجه فارنهایت (52 درجه سانتیگراد) بالاتر نرود. بلاتینگ مجاز نیست.
+(ب) برنامه توسعه دهنده غیرآبی. توسعه‌دهنده‌های غیرآبی باید با سمپاشی استفاده شوند، مگر در مواردی که ایمنی یا دسترسی محدود مانع از آن باشد. در چنین شرایطی، توسعه دهنده ممکن است با مسواک زدن اعمال شود. برای مواد نافذ قابل شستشو یا پس از امولسیون شدن آب، توسعه دهنده باید روی سطح خشک اعمال شود. برای مواد نافذ قابل جابجایی با حلال، توسعه دهنده ممکن است در اسرع وقت پس از حذف بیش از حد نافذ اعمال شود. خشک شدن باید با تبخیر معمولی باشد
+T-675.3 زمان توسعه(DEVELOPING).
+  زمان توسعه برای تفسیر نهایی بلافاصله پس از اعمال یک توسعه دهنده خشک یا به محض خشک شدن یک پوشش توسعه دهنده مرطوب شروع می شود.
+T-676  تفسیر
+تفسیر نهایی T-676.1.
+  تفسیر نهایی نباید کمتر از 10 دقیقه و یا بیش از 60 دقیقه پس از برآورده شدن الزامات T-675.3 انجام شود، مگر اینکه طبق T-653 شرایط دیگری وجود داشته باشد. اگر خونریزی نتایج معاینه را تغییر ندهد، دوره های طولانی تر مجاز است. اگر سطح مورد بررسی به اندازه کافی بزرگ باشد که مانع از معاینه کامل در زمان تعیین شده یا تعیین شده شود، معاینه باید به صورت تدریجی انجام شود.
+T-676.2 نشانه(های) مشخص کننده.
+ارزیابی نوع ناپیوستگی ها در صورت انتشار بیش از حد نافذ در توسعه دهنده دشوار است. اگر این وضعیت رخ دهد، مشاهده دقیق شکل گیری اندیکاسیون (ها) در طول استفاده از توسعه دهنده ممکن است به توصیف و تعیین میزان نشانه (ها) کمک کند.
+T-676.3 نافذ کنتراست رنگ.
+  با یک ماده نافذ کنتراست رنگ، توسعه دهنده یک پوشش سفید نسبتا یکنواخت را تشکیل می دهد. ناپیوستگی های سطحی با خروج ماده نافذ که معمولاً یک رنگ قرمز تیره است که سازنده را لکه دار می کند نشان داده می شود. نشانه هایی با رنگ صورتی روشن ممکن است نشان دهنده تمیز کردن بیش از حد باشد. تمیز کردن ناکافی ممکن است یک پس زمینه بیش از حد ایجاد کند که تفسیر را دشوار می کند. روشنایی (طبیعی یا
+نور سفید مکمل) سطح معاینه برای ارزیابی اندیکاسیون ها مورد نیاز است. حداقل شدت نور باید 100) (1076 lx fcباشد. شدت نور، منبع نور سفید طبیعی یا مکمل، باید با نورسنج سفید قبل از ارزیابی نشانه ها اندازه گیری شود یا از منبع نور تایید شده استفاده شود. تأیید منابع نور باید فقط یک بار نشان داده شود، مستند شده و در پرونده نگهداری شود.
+T-676.4 نافذ فلورسنت.
+ در مورد مواد نفوذ کننده فلورسنت، فرآیند اساساً مانند T-676.3 است، با این تفاوت که معاینه با استفاده از نور ماوراء بنفش به نام نور UV-A انجام می شود. معاینه باید به شرح زیر انجام شود:
+(الف) باید در یک منطقه تاریک با حداکثر سطح نور سفید محیط 2 fc (21.5 lx) انجام شود که با نورسنج سفید کالیبره شده در سطح معاینه اندازه‌گیری می‌شود.
+(ب) معاینه‌کنندگان باید حداقل به مدت 5 دقیقه قبل از انجام معاینه در یک منطقه تاریک باشند تا چشمانشان را قادر سازند تا با دید تاریک سازگار شوند. عینک یا عدسی که توسط معاینه کنندگان استفاده می شود نباید حساس به نور باشد.
+(ج) منطقه معاینه باید با چراغ های UV-A که در محدوده بین 320 نانومتر تا 400 نانومتر کار می کنند روشن شود.
+(د) نورهای UV باید حداقل 1000 میکرووات بر سانتی‌متر مربع را روی سطح قطعه‌ای که در طول معاینه بررسی می‌شود، به دست آورند.
+(ه) رفلکتورها و فیلترها باید قبل از استفاده بررسی و در صورت لزوم تمیز شوند. بازتابنده ها، فیلترها، شیشه ها یا عدسی های ترک خورده یا شکسته باید فورا تعویض شوند.
+(و) شدت نور UV-A باید قبل از استفاده با نورسنج UV-A اندازه گیری شود، هر زمان که منبع برق نور قطع یا تغییر کرد، و در پایان معاینه یا مجموعه ای از معاینات.
+(ز) لامپ‌های قوسی بخار جیوه، طول موج‌های UV-A را عمدتاً در طول موج 365 نانومتر برای القای فلورسانس تولید می‌کنند. دیودهای ساطع کننده نور (LED) منابع UV-A با استفاده از یک LED UV-A یا آرایه ای از LED های UV-A باید دارای ویژگی های انتشار قابل مقایسه با سایر منابع UV-A باشند. منابع LED UV-A باید الزامات SE-2297 و SE-3022 را برآورده کنند. منابع نور LED UV-A باید دارای گواهینامه مطابق با الزامات SE-3022 و/یا ASTM E3022 باشند.
+T-677 تمیز کردن پس از بازرسی
+هنگامی که تمیز کردن پس از معاینه توسط روش مورد نیاز است، باید در اسرع وقت پس از ارزیابی و مستندسازی با استفاده از فرآیندی انجام شود که تأثیر نامطلوبی بر قطعه نداشته باشد.
+T-680 ارزیابی
+(الف) همه نشانه ها باید از نظر استانداردهای پذیرش بخش کد مرجع ارزیابی شوند.
+(ب) ناپیوستگی در سطح با خروج ماده نافذ نشان داده می شود. با این حال، بی نظمی های موضعی سطح به دلیل علائم ماشین کاری یا سایر شرایط سطح ممکن است نشانه های نادرستی ایجاد کند.
+(ج) نواحی وسیع فلورسانس یا رنگدانه که می‌تواند نشانه‌های ناپیوستگی را پنهان کند، غیرقابل قبول است، و این مناطق باید تمیز و مجدداً بررسی شوند.
+|||
+[[[ARTICLE7p1.JPG]]]
+[[[ARTICLE7p2.JPG]]]
+[[[ARTICLE7p3.JPG]]]
+IV-710  SCOPE
+این ضمیمه روشی را برای واجد شرایط بودن عملکرد بررسی ذرات فلورسنت با استفاده از منابع طول موج متناوب ارائه می دهد.
+IV-720  GENERAL
+الزامات ماده 7 اعمال می شود مگر اینکه توسط این پیوست اصلاح شود.
+الزامات رویه کتبی IV-721
+IV-721.1 الزامات. الزامات جدول
+IV-721 برای الزامات رویه کتبی (T-721.1) و زمانی که توسط بخش کد ارجاع به صلاحیت رویه (T-721.2) مشخص شده است اعمال می شود.
+V-723 نمایش رویه
+رویه باید مطابق با الزامات بخش کد مرجع برای رضایت بازرس نشان داده شود.
+IV-750 TECHNIQUE
+IV-751 استاندارد صلاحیت
+شیم(های) شکافدار به ضخامت 0.002 اینچ (0.05 میلی متر) که 30 درصد مواد عمیق برداشته شده است، همانطور که در T-764.2(b) توضیح داده شده است باید برای واجد شرایط بودن منبع نور با طول موج دوم و ذرات خاص استفاده شود. شیم(های) باید به سطح شی فرومغناطیسی چسبانده شود و همانطور که در ( T-764.2(b توضیح داده شده است، با بریدگی روی سطح جسم استفاده شود.
+IV-752 شیشه های فیلتر
+اگر منبع نور با طول موج جایگزین نور در قسمت مرئی طیف (طول موج 400 نانومتر یا بیشتر) ساطع کند، معاینه کننده باید از عینک های فیلتری استفاده کند که توسط سازنده منبع نور تهیه شده است تا در حین انتقال فلورسانس ذرات، نور تحریک مرئی منعکس شده را مسدود کند.
+IV-770 امتحانات صلاحیت
+IV-771 شدت نور سیاه
+شدت نور سیاه در سطح معاینه باید با تغییر فاصله یا قدرت تنظیم شود تا حداقل شدت آن 1000 میکرووات بر سانتی‌متر مربع و حداکثر شدت آن μW/cm 2 1100 میکرووات بر سانتی‌متر مربع باشد.
+V-772 الزامات آزمون
+پارامترهای معاینه برای شی انتخاب شده باید توسط قوانین T-750 قابل اعمال برای شی انتخاب شده و روش مغناطیسی تعیین شود. هر یک از تکنیک های مغناطیسی ذکر شده در T-751 ممکن است مورد استفاده قرار گیرد.
+همان نشانه(های) ناپیوستگی(های) شیم باید برای بررسی نور سیاه و طول موج متناوب استفاده شود.
+.
+[[[ARTICLE71.JPG]]]
+V-772.1 معاینه با نور سیاه. واجد شرایط
+استاندارد کاتیون با شیم(های) متصل شده باید با پارامترهای تعیین شده و ذرات خاص در یک منطقه تاریک با نور سیاه بررسی شود. ذرات متصاعد کننده در نشانه (ها) باید عکسبرداری شوند.
+V-772.2 معاینه با طول موج متناوب
+سبک. با استفاده از همان نشانه(های) ذره ای که در IV-772.1 مورد بررسی قرار گرفته است، به منبع نور با طول موج متناوب بروید و شدت نور را با تغییر فاصله یا قدرت تنظیم کنید تا نشانه(های) ذره اساساً مشابه آنهایی باشد که با آن به دست آمده است. نور سیاه بالا
+شدت نور باید با نورسنج طول موج جایگزین اندازه گیری شود. نشان(های) ذرات حاصل باید با استفاده از تکنیک های عکاسی یکسانی که برای نور سیاه استفاده می شود، عکسبرداری شود. با این حال، فیلترهای لنز دوربین مناسب برای استفاده با منبع نور با طول موج متناوب باید برای ضبط نشانه(ها)، در صورت لزوم استفاده شود.
+IV-773 صلاحیت جایگزین
+منبع نور با طول موج و ذرات خاص
+وقتی می توان همان نشانه(های) ذره ای را که با نور سیاه به دست می آید با منبع نور با طول موج متناوب به دست آورد، منبع نور با طول موج متناوب ممکن است برای بررسی ذرات مغناطیسی استفاده شود. منبع نور با طول موج متناوب با حداقل شدت واجد شرایط باید با نام ذرات خاص استفاده شده در صلاحیت استفاده شود.
+IV-790 اسناد
+IV-791 سوابق بازرسی
+برای هر معاینه، اطلاعات مورد نیاز در T-793 و اطلاعات زیر باید ثبت شود:
+(الف) منبع نور با طول موج جایگزین، سازنده و مدل
+(ب) متر منبع نور با طول موج جایگزین، سازنده و مدل
+ج) شیشه های فیلتر، در صورت لزوم
+(د) سازنده ذرات فلورسنت و نامگذاری
+(ه) شناسایی استاندارد صلاحیت
+(و) جزئیات تکنیک
+(ز) شناسایی پرسنلی که صلاحیت را انجام می دهند و شاهد آن هستند
+(ح) تجهیزات و مواد مورد استفاده
+(i) حداقل شدت نور با طول موج متناوب
+(ی) عکس‌ها، تنظیمات نوردهی و فیلترها، در صورت استفاده، نور سیاه و نورهای جایگزین طول موج
+</t>
   </si>
   <si>
     <t xml:space="preserve">Hydrostatic test </t>
@@ -243,7 +509,7 @@
     <t>تست هیدرواستاتیک/فشار باید طبق روال تایید شده و استاندارد مربوطه انجام شود. در گزارش باید شرایط محیطی از قبیل fitting و دمای آب در نظر گرفته شود. قبل از آزمایش، تمام گواهی های کالیبراسیون برای گیج ها و آنالیز آب باید بررسی شوند. (تاریخ انقضا و محتوای CL/PH مهم هستند).</t>
   </si>
   <si>
-    <t xml:space="preserve">ASME B31.3 &amp; ASTM A530 </t>
+    <t xml:space="preserve">ASME B31.3||| ASTM A530 </t>
   </si>
   <si>
     <t>Chapter VI  345 : LEAK TESTING &amp;               20. Hydrostatic Test Requirements</t>
@@ -261,10 +527,89 @@
     <t>بازرسی پوشش / رنگ آمیزی باید طبق رویه و استاندارد تایید شده انجام شود. تمام ابزارهای مربوطه باید دارای گواهی کالیبراسیون معتبر باشند و اندازه گیری واقعی باید در گزارش بازرسی ذکر شود.</t>
   </si>
   <si>
-    <t>ISO 8501            SSPC (20&amp;22&amp;36)</t>
-  </si>
-  <si>
-    <t>20:ZINC-RICH COATING INORGANIC AND ORGANIC                                                         22:EPOXY POLYAMIDE PAINTS (PRIMER, INTERMEDIATE, AND TOPCOAT)                                                                                           36: TWO-COMPONENT WEATHERABLE ALIPHATIC POLYURETHANE TOPCOAT, PERFORMANCE-BASED</t>
+    <t xml:space="preserve">            SSPC 20|||SSPC22|||SSPC36)</t>
+  </si>
+  <si>
+    <t>20:ZINC-RICH COATING INORGANIC AND ORGANIC   |||   22:EPOXY POLYAMIDE PAINTS (PRIMER, INTERMEDIATE, AND TOPCOAT)    |||   36: TWO-COMPONENT WEATHERABLE ALIPHATIC POLYURETHANE TOPCOAT, PERFORMANCE-BASED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[[9-1sspc20.JPG]]]
+[[[9-2sspc20.JPG]]]
+[[[9-3sspc20.JPG]]]
+[[[9-4sspc20.JPG]]]
+[[[9-5sspc20.JPG]]]
+[[[9-6sspc20.JPG]]]
+5. شرایط تست استاندارد
+ 5.1 پانل های تست: پانل های تست فولاد نورد گرم باید با ASTM A 572 مطابقت داشته باشند.  پانل های آزمایش باید مطابق با SSPC-SP 1 قبل از تمیز کردن انفجار با حلال تمیز شوند.  پانل های آزمایشی باید مطابق با SSPC-SP 5 تمیز شوند و دارای پروفیل انفجار 44 تا 57 میکرومتر (1.75 تا 2.25 میل) باشند.  مشخصات انفجار را مطابق با ASTM D 4417، روش C اندازه گیری کنید.
+5.2 کاربرد: پوشش باید مطابق با توصیه های کتبی سازنده پوشش به صورت یک لایه اسپری شود.
+  5.3 ضخامت لایه خشک: ضخامت لایه خشک (DFT) پانل های آزمایش باید حداقل توصیه شده توسط سازنده را برآورده کند و نباید بیش از 25 میکرومتر (1 میلی) از حداقل اعلام شده سازنده تجاوز کند.  اگر ضخامت فیلم توصیه شده وجود نداشته باشد، ضخامت آن باید 60 تا 90 میکرومتر (2.5 تا 3.5 میل) باشد.  DFT باید مطابق با پیوست اندازه گیری شود.
+5.4 CURE: پوشش باید مطابق با توصیه های کتبی سازنده خشک و پخت شود. 
+ 5.5 خط زدن: دو خط موازی را روی صفحه پانل های پوشش داده شده بکشید تا فلز زیرین قبل از آزمایش نمایان شود.  خطوط باید حداقل 2.5 سانتی متر (1 اینچ) از لبه، بالا و پایین هر پانل و حداقل 5 سانتی متر (2 اینچ) از یکدیگر باشند.  هر کاتب باید حداقل 6 سانتی متر (2.4 اینچ) طول داشته باشد.  نویسندگان ممکن است به صورت عمودی یا با زاویه در سراسر صفحه پانل اجرا شوند.  رویه‌ای را که در ASTM D 1654، 5.6 پشت و لبه‌ها توضیح داده شده است، دنبال کنید: تمام لبه‌ها و قسمت پشتی هر پانل را با روکش یا نواری بپوشانید که محافظت غیرضروری از این سطوح را فراهم می‌کند.
+5.6 پشت و لبه ها: تمام لبه ها و قسمت پشتی هر پانل را با روکش یا نواری بپوشانید و ببندید که محافظت لازم را از این سطوح فراهم می کند.
+6. الزامات پوشش مایع
+ مخلوط کردن: قسمت مایع یک پوشش چند جزئی باید مخلوط و پراکنده شود تا محصولی یکنواخت، پایدار، عاری از شن، و مطابق با الزامات این مشخصات تولید شود.
+(اگر به صورت گرد و غبار عرضه شود) باید قبل از اختلاط خشک و بسته بندی شود.  6.1.1 بخش رنگدانه یک پوشش چند جزئی
+6.1.2 پوشش آماده باید بتواند تحت همزن مکانیکی پخش شود و به یک قوام صاف و یکنواخت برسد و هیچ خاصیت اعتراضی در مخلوط نشان ندهد.
+6.1.3 پس از اختلاط، تمام اشتباهات تایپی ذرات درشت و پوست به صورت گلابی که روی صفحه استاندارد مشبک 60 باقی مانده است، نباید بیش از 0.5 درصد وزنی کل پوشش، صرف نظر از نوع، مطابق با ASTM D 185 باشد.  برای پوشش های فناوری جدید مورد نیاز است، ممکن است بین طرف های قرارداد با اندازه صفحه نمایش جایگزین موافقت شود.
+6.2 عمر pot: عمر pot یک پوشش چند جزئی غنی از روی، زمانی که مخلوط شده و برای استفاده مطابق با دستورالعمل های مکتوب سازنده آماده می شود، نباید تجاوز کند.  عمر pot با تنظیم دما و رطوبت باید توسط سازنده پوشش ارائه شود.  موادی که به درستی مخلوط شده و استفاده می شود تا پایان عمر pot باید آزمایش چسبندگی شرح داده شده در بخش 7.2 را پشت سر بگذارد.
+6.3 عمر ذخیره سازی: نه پوشش پوشش چند جزئی و نه پوشش مخلوط جاده ای نباید ضخیم شدنی را نشان دهند که برای عملکرد یا ویژگی های کاربرد مضر باشد.  اجزاء یا پوشش نباید پس از نگهداری بدون مخلوط شدن به مدت حداقل شش ماه از تاریخ تحویل در ظرف کاملاً آغشته شده و بدون پوشش در دمای 10 تا 32 درجه سانتیگراد (50 تا 90) هیچ گونه منعقد، ژل شدن، گاز گرفتن یا سفت شدن را نشان ندهند.  F).
+6.5 نقطه اشتعال: حداقل نقطه اشتعال، همانطور که توسط ASTM D 3278 تعیین می شود، برای پوشش های غیر آلی غبار روی مبتنی بر آب باید "غیر" و برای روی غیر آلی مبتنی بر حلال حداقل 4.4 اینچ (40 درجه فارنهایت) باشد.  پرایمرها (نوع I) و برای پرایمرهای روی آلی (نوع II).
+10. بازرسی
+ 10.1 کلیه مواد عرضه شده تحت این مشخصات منوط به بازرسی به موقع توسط خریدار یا نماینده مجاز وی می باشد.  خریدار این حق را خواهد داشت که هر گونه مواد ارائه شده را که معیوب تشخیص داده شده است را رد کند و این ویژگی را برطرف کند (همچنین Notos 12.7 و 12.8).  در صورتی که  مورد اختلاف وجود داشته باشد ، باید این خلاف آن حل شده باشد،و این  رویه داوری یا حل و فصل مقرر در اسناد تدارکات باید طبق اسپک دنبال شود.  اگر رویه داوری ایجاد نشود، از رویه مشخص شده توسط انجمن داوری آمریکا استفاده می شود.
+10.2 نمونه پالنت ممکن است توسط خریدار درخواست شود و در صورت درخواست همراه با نام سازنده و مشخصات مواد ارائه شود.  نمونه ها ممکن است در زمان ثبت سفارش خرید درخواست شوند یا ممکن است از ظروف باز نشده در محل کار گرفته شوند.
+  10.3، مگر اینکه طور دیگری مشخص شده باشد، نمونه برداری باید مطابق با ASTMD 4380 باشد.
+|||
+[[[sspc22p1.JPG]]]
+[[[sspc22p2.JPG]]]
+[[[sspc22p3.JPG]]]
+[[[sspc22p4.JPG]]]
+[[[sspc22p5.JPG]]]
+4. ترکیب
+4.1 مواد تشکیل دهنده و نسبت فرمولاسیون مرجع باید همانطور که در جدول 1 مشخص شده است باشد.
+4.2 هر یک از اجزای این رنگ ها بر اساس ترکیبات مشخص شده باید یکنواخت، در انبار پایدار و عاری از شن و ذرات درشت باشند.
+4.3 جزء پایه هر پوشش باید حاوی رزین اپوکسی همراه با رنگدانه های ضد خوردگی، رنگدانه های رنگی، فیلرهای معدنی، ژل، عامل تراز کننده و حلال های فرار باشد. رزین اپوکسی باید یک محصول تراکم دی اپوکسید از بی فنل A و اپی کلروهیدرین با گروه پوکسید انتهایی باشد.
+4.4 جزء عامل پخت هر پوشش باید حاوی رزین پلی آمید نوع مایع و حلال فرار باشد. رزین پلی آمید باید محصول تراکم دیمر شده باشد
+اسیدهای چرب و پلی آمین ها
+4.5 هر پوشش باید با الزامات ترکیب (تجزیه و تحلیل) جدول 2 مطابقت داشته باشد.
+5. خواص
+5.1 رزین اپوکسی باید الزامات جدول 3 را برآورده کند.
+5.2 رزین پلی آمید رقیق نشده باید الزامات جدول 4 را برآورده کند.
+5.3 پوشش های ارائه شده تحت این مشخصات باید قابل مقایسه باشند
+در عملکرد به فرمول های مرجع جدول 1. لازم نیست که آنها از مقادیر و انواع مواد موجود در جدول 1 تشکیل شده باشند. با این حال، اگر جایگزینی با سایر مواد تشکیل شود، پوشش ها باید عملکرد را داشته باشند.
+الزامات این مشخصات؛ و هنگامی که در یک سیستم رنگ آمیزی گنجانده می شود، الزامات عملکرد SSPC-PS 13.01، "سیستم رنگ آمیزی پلی آمید اپوکسی".
+5.4 پس از ترکیب اجزای پایه و عامل پخت، پرایمر، لایه میانی و پوشش رویی باید مطابق با الزامات جدول 5 و بخش های 5.5 تا 5.9 باشد.
+5.5 عمر pot: عمر pot هر پوشش را به شرح زیر تعیین کنید. یک نمونه یک پینتی از پوشش تمام شده را کاملاً مخلوط کنید و بگذارید در دمای 3 ± 77 درجه فارنهایت (2 ± 25 درجه سانتیگراد) به مدت هشت ساعت بماند. در پایان این زمان هیچ مدرکی از gelation شدن وجود نخواهد داشت. پوشش ها باید در شرایط جریان آزاد و بدون نازک شدن قابل برس زدن باشند. توجه: هنگام مخلوط کردن حجم‌های بزرگ‌تر، گرمای بیشتری ایجاد می‌شود و در نتیجه عمر pot کوتاه‌تر می‌شود.
+5.6 مقاومت در برابر حلال: ایجاد مقاومت در برابر حلال (متیل اتیل کتون) به عنوان نشانه ای از درمان رضایت بخش و مقاومت شیمیایی بعدی مورد نیاز است. پوشش منفرد (پرایمر، میانی، روکش) را با اسپری یا برس روی یک صفحه آزمایش تمیز بمالید تا ضخامت لایه خشک دو تا سه میل (51 تا 76 میکرومتر) در هر لایه به دست آید. پانل را به مدت پنج روز با هوا در دمای 3 ± 77 درجه فارنهایت (2 ± 25 درجه سانتیگراد) و رطوبت نسبی 40 تا 50 درصد خشک کنید. پس از دوره پخت، یک گلوله پنبه کوچک را با متیل اتیل کتون آغشته کنید و به مدت 30 دقیقه روی صفحه تست زیر شیشه ساعت قرار دهید. پس از یک دوره بهبود ده دقیقه ای، سختی مداد پوشش را تعیین کنید. حداقل امتیاز مجاز "7B" است.
+سختی مداد را به صورت زیر تعیین کنید: با استفاده از یک سری سرنخ های کششی (چه چوب بسته شده یا محکم شده در یک نگهدارنده مکانیکی)، تقریباً 1/4 اینچ (6 میلی متر) سرب را در معرض دید قرار دهید. با یک مربع حرکت چرخشی نقطه سرب در برابر کاغذ شن شماره 400. سرب را تقریباً در زاویه 45 درجه نگه دارید و با فشاری که کمتر از شکستن سرب است، در برابر فیلم به جلو فشار دهید. اگر نفوذ انجام نشد، با استفاده از سرب سخت تر بعدی تکرار کنید تا نفوذ انجام شود. با نشان دادن سخت‌ترین سربی که نفوذ نمی‌کند، فیلم را رتبه‌بندی کنید.
+5.7 پانل های تست: پانل های آزمایش باید از فولاد کربنی باشند - حداقل اندازه 4 × 8 × 1/8 اینچ (10.2 x 20.3 x 0.31 سانتی متر) - مگر اینکه طور دیگری مشخص شده باشد. آنها باید مطابق با SSPC-SP 10، "تمیز کردن انفجار نزدیک به سفید" تمیز شوند. شرایط خشک کردن هوا و آزمایش باید در دمای 3 ± 77 درجه فارنهایت (2 ± 25 درجه سانتیگراد) و رطوبت نسبی 40 تا 50 درصد باشد.
+5.8 تست چسبندگی الکومتر: پانل های آزمایشی را مطابق با بخش 5.7 با استفاده از صفحه فولادی 1/4 اینچ (6 میلی متر) آماده کنید. پوشش ها را در 2.0 تا 3.0 میل (51 تا 76 میکرومتر) فیلم خشک اعمال کنید.
+ضخامت در هر پوشش مطابق با برنامه زیر:
+[[[sspc221.JPG]]]
+چسبندگی لایه پرایم به زیرلایه، چسبندگی لایه داخلی یا انسجام هر پوششی از سیستم رنگ آمیزی باید توسط دستگاه سنجش چسبندگی تعیین شود (1000 پوند، 156 کیلوگرم). پانل های تست را همانطور که در بالا توضیح داده شد آماده کنید. روی پوشش را کمی سنباده بزنید
+سطح و دالی آلومینیومی، و یک چسب ست سریع حاوی آلفا سیانواکریلات اعمال کنید. اجازه دهید چسب یک شبه خشک شود. قبل از آزمایش، روکش و چسب اطراف دالی را بنویسید. حداقل سه آزمایش انجام دهید و میانگین را گزارش دهید. میانگین 400 پوند در هر اینچ مربع (280000 کیلوگرم بر متر مربع) قابل قبول در نظر گرفته می شود.
+5.9 مقاومت در برابر پاشش نمک (فقط پرایمر): حداقل دو پانل آزمایشی را مانند بخش 5.7 آماده کنید و یک لایه پرایم را با ضخامت لایه خشک 2.5 تا 3.0 میل (64 تا 76 میکرومتر) بمالید. پنج روز در هوا خشک می شود. از پشت و لبه ها محافظت کنید. پانل ها را مطابق استاندارد ASTM D 1654 روی فلز پایه قرار دهید و به مدت 500 ساعت در معرض 5 درصد نمک پاشی مطابق با ASTM B 117 قرار دهید. در طول آزمایش، پانل ها باید با زاویه 15 درجه نسبت به عمودی متمایل شوند. در پایان دوره آزمایش، پرایمر باید دارای حداقل درجه زنگ زدگی "8" باشد. تاول زدن نباید بیشتر از تاول شماره 4 باشد، تعداد کمی.
+استانداردهای عکاسی SSPC-VIS 2، "روش استاندارد ارزیابی درجه زنگ زدگی روی سطوح فولادی رنگ شده" یا ASTM D 610 ممکن است برای زنگ زدگی و ASTM D 714 ممکن است برای تاول زدن استفاده شود.
+|||
+[[[sspc361.JPG]]]
+[[[sspc362.JPG]]]
+[[[sspc363.JPG]]]
+[[[sspc364.JPG]]]
+4. الزامات ترکیب
+4.1 رزین مورد نیاز: عامل پخت باید پلی ایزوسیانات آلیفاتیک باشد. کل جامدات چسبنده پوشش باید حداقل از 17 درصد وزنی پلی ایزوسیانات تشکیل شده باشد. روش و فرمول تعیین محتوای ایزوسیانات که توسط AASHTO به عنوان TP 67 ایجاد شده است، در پیوست نشان داده شده است.
+4.2 محتوای VOC: به تبصره 10.1 مراجعه کنید.
+5. الزامات پوشش مایع
+5.1 پایداری بسته بندی: پایداری بسته باید مطابق با ASTM D 1849 آزمایش شود. شرایط نگهداری باید 30 روز در دمای 1 ± 52 درجه سانتی گراد (2 ± 126 درجه فارنهایت) باشد. تغییر در سازگاری بیش از 10 واحد کربس یا عدم انطباق با الزامات درخواست باید دلیل رد شود.
+5.2 ویژگی های برنامه: تمام راهنمایی ها ارائه شده است
+توسط سازنده در مورد اختلاط چند جزئی
+محصولات، الزامات نازک شدن، زمان القاء، و الزامات ویژه کاربرد باید رعایت شود. با توجه به توصیه های سازنده، پوشش باید به راحتی توسط برس، غلتک یا اسپری اعمال شود. پوشش نباید در حین اجرا یا در حین خشک شدن رگه، دویدن، افتادگی یا سایر عیب‌ها را نشان دهد.
+6. الزامات هواشناسی
+6.1 مقاومت در برابر آب و هوا: دو روش تست هوازدگی در زیر مشخص شده است. ممکن است داده های تست برای رنگ و براقیت مشخص شده در دسترس نباشد. سطوح عملکرد با استفاده از رنگ های سفید و روشن ایجاد می شود. این به صلاحدید تعیین کننده واگذار می شود که آیا داده های فلوریدا را از رنگ مشابه بپذیرد یا از داده های UV-A به جای داده های هوازدگی فلوریدا استفاده کند.
+6.1.1 هوازدگی تسریع شده: هوازدگی تسریع شده باید مطابق با ASTM D 4587، چرخه 2 انجام شود. پانل های آزمایش باید طبق توصیه سازنده دارای یک لایه آغازگر/واسطه باشند.
+6.1.2 هوازدگی فلوریدا جنوبی: هوازدگی فلوریدا جنوبی باید مطابق با ASTM D 1014 انجام شود (45 درجه قرار گرفتن در معرض جنوب، شسته شده با مواد شوینده ملایم). پانل های آزمایش باید طبق توصیه سازنده دارای یک لایه آغازگر/واسطه باشند.
+6.1.3 کاربرد باید طبق توصیه های کتبی سازنده باشد. حداقل سه پانل باید در معرض دید قرار گیرد. پوشش های شفاف باید روی پوشش پایه مورد نظر آزمایش شوند. در ابتدا و در پایان هر دوره سطح، براقیت 60 درجه باید بر اساس ASTM D 523 اندازه گیری شود.
+و رنگ tristimulus باید بر اساس ASTM D 2244 اندازه گیری شود. جدول 3 آزمایشات بخش 6 و همچنین حداقل معیارهای پذیرش را خلاصه می کند.
+6.2 سطوح عملکرد: جداول 1 و 2 مدت زمانی را که پوشش باید قبل از تغییر محسوس انجام دهد تا به سطح عملکرد تعریف شده دست یابد، مشخص می کند. روکش های پلی اورتان در طیف وسیعی از رنگ و براق موجود می باشد. اسناد تدارکات باید سطح عملکرد مطلوب، روش نوردهی (مطابق با جداول 1 و 2)، رنگ و براقیت را بیان کنند. به عنوان مثال، ممکن است یک شرایط خاص نیاز به نوردهی سطح 2 فلوریدا داشته باشد، براقیت اولیه بیشتر از 80، مطابق با یک رنگ خاص. سطح معینی از هوازدگی تسریع شده لزوماً با سطح خاصی از هوازدگی جوی مطابقت ندارد و آنها باید به طور مستقل مشخص شوند. این دو مکمل مستقل برای اندازه گیری عملکرد پوشش هستند. اگر هیچ سطحی مشخص نشده باشد، سطح 3 در نظر گرفته می شود.
+</t>
   </si>
   <si>
     <t>Document review</t>
@@ -285,11 +630,14 @@
     <t>21. Certified Test Report</t>
   </si>
   <si>
-    <t xml:space="preserve">20. نمونه های آزمایشی
+    <t xml:space="preserve">		[[[10A530A530Mp1.JPG]]]
+		[[[10A530A530Mp2.JPG]]]
+20. نمونه های آزمایشی
 20.1 نمونه‌های آزمایشی باید از انتهای لوله‌های تمام‌شده با عملیات حرارتی قبل از هر گونه عملیات شکل‌دهی گرفته شوند یا به طول بریده شوند. آنها باید در انتها صاف و عاری از خراش و ایراد باشند، به جز نمونه هایی که برای آزمایش صاف کردن از انتهای محصول ساخته می شوند.
 20.2 نمونه هایی که به صورت طولی یا عرضی بریده شده اند باید برای آزمایش کشش قابل قبول باشند. 20.3 اگر هر نمونه آزمایشی نقص یا ماشینکاری معیوب را نشان دهد، نمونه ممکن است دور انداخته شود و نمونه دیگری جایگزین شود.
 21. الزامات تست صاف کردن
 21.1 لوله ریخته گری بدون درز و گریز از مرکز—بخشی از لوله که طول آن کمتر از 21⁄2 اینچ [63 میلی متر] نباشد باید در دو مرحله به صورت سرد بین صفحات موازی صاف شود. در مرحله اول که آزمایش شکل پذیری است، هیچ ترک یا شکستگی در سطوح داخلی، خارجی یا انتهایی، به جز مواردی که در بند 21-3-4 پیش بینی شده است، نباید رخ دهد تا زمانی که فاصله بین صفحات کمتر از مقدار H باشد. به صورت زیر محاسبه می شود:
+[[[10A530A530M1.JPG]]]
 که دراینجا :
 H = فاصله بین صفحات مسطح، اینچ [mm]،
 t = ضخامت دیوار مشخص شده، اینچ [mm]،
@@ -323,7 +671,8 @@
     <t>A 700</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3 علامت گذاری:
+    <t xml:space="preserve">[[[11ASTMA7001.JPG]]]
+5.3 علامت گذاری:
 5.3.1 زدن مهر یا رنگ آمیزی شماره حرارت بر روی هر قطعه شل و نشان دادن شماره حرارت بر روی برچسب متصل به هر بالابر ایمن شمش های سایز کوچکتر عملی عادی است. اندازه و وزن سفارش داده شده ممکن است روی حداقل یک تکه از هر اندازه در هنگام حمل شل یا حداقل روی یک قطعه از هر بالابر ایمن نقاشی شود. هر کویل اسکلپ با شماره گرما و اندازه برچسب یا علامت گذاری می شود.
 5.3.2 علامت گذاری رنگ - هیچ کد رنگی به طور کلی برای شناسایی گریدهای فولادی وجود ندارد. در صورت مشخص شدن، علامت گذاری رنگی برای نشان دادن درجه اعمال می شود. در چنین مواردی یک خط رنگ در یک سر قطعات شل کافی است. در مورد بالابرهای ایمن با اندازه های کوچکتر، درجه بر روی برچسب متصل به بالابر یا با یک خط تیره یک رنگ در یک انتهای آسانسور نشان داده می شود.
 5.4 بسته بندی:
@@ -711,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -886,28 +1235,34 @@
       <c r="G7" t="s">
         <v>44</v>
       </c>
+      <c r="H7" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1">
@@ -915,45 +1270,49 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1">
@@ -961,25 +1320,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1">
@@ -987,25 +1346,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Book.xlsx
+++ b/Files/Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\سجاد\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_7EEB400333E2B07A218B7EFDE3AD8E88B348E0D7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6786A64-A383-4A6E-8AE0-B5F4FEC44329}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_7EEB400333E2B07A218B7EFDE3AD8E88B348E0D7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{440F0F2C-57CC-4C6B-A654-2E84845C6E22}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,7 +195,7 @@
     <t>ابعاد واندازه</t>
   </si>
   <si>
-    <t>ابعاد باید با ابزار مدرج و بر اساس نقشه و استاندارد مربوطه اندازه گیری شود. تمام اندازه گیری های واقعی باید در نمودار مناسب در گزارش بازرسی ذکر شود.</t>
+    <t>ابعاد باید با ابزار دارای گواهی کالیبراسیون  و بر اساس نقشه و استاندارد مربوطه اندازه گیری شود. تمام اندازه گیری های واقعی باید در جدول مناسب در گزارش بازرسی ذکر شود.</t>
   </si>
   <si>
     <t>ASME</t>
@@ -506,7 +506,7 @@
     <t>تست هیدرو استاتیک</t>
   </si>
   <si>
-    <t>تست هیدرواستاتیک/فشار باید طبق روال تایید شده و استاندارد مربوطه انجام شود. در گزارش باید شرایط محیطی از قبیل fitting و دمای آب در نظر گرفته شود. قبل از آزمایش، تمام گواهی های کالیبراسیون برای گیج ها و آنالیز آب باید بررسی شوند. (تاریخ انقضا و محتوای CL/PH مهم هستند).</t>
+    <t>تست هیدرواستاتیک/فشار باید طبق دستورالعمل تایید شده و استاندارد مربوطه انجام شود. در گزارش باید شرایط محیطی از قبیل fitting و دمای آب در نظر گرفته شود. قبل از آزمایش، تمام گواهی های کالیبراسیون برای گیج ها و آنالیز آب باید بررسی شوند. (تاریخ انقضا و محتوای CL/PH مهم هستند).</t>
   </si>
   <si>
     <t xml:space="preserve">ASME B31.3||| ASTM A530 </t>
@@ -621,7 +621,7 @@
     <t>بررسی اسناد</t>
   </si>
   <si>
-    <t>بررسی سند: MTC باید بررسی شود و تایید شود که آنها با لوله های بازرسی شده مرتبط هستند. بازرس باید در گزارش ذکر کند که اصل یا کپی و نوع گواهینامه عبارت بود از: 2.1،2.2،3.1 یا 3.2 همچنین گواهی کیفیت مواد صادر شده توسط کارخانه/فروشنده در لیست فروشنده تایید شده است یا خیر. کلیه پارامترها مانند آنالیزهای شیمیایی، خواص مکانیکی و غیره باید با استاندارد مربوطه مقایسه شوند. بازرس فقط در صورتی که همه موارد رضایت بخش بود، اجازه گذاشتن امضا (بررسی ذکر) یا مهر بررسی را روی MTC می داد.</t>
+    <t>بررسی سند: MTC باید بررسی شود و تایید شود که آنها با لوله های بازرسی شده مرتبط هستند. بازرس باید در گزارش ذکر کند که گواهینامه صهدر شده اصل بوده یا کپی و همچنین نوع آن: 2.1،2.2،3.1 یا 3.2 همچنین گواهی کیفیت مواد صادر شده توسط کارخانه/فروشنده در لیست فروشنده تایید شده است یا خیر. کلیه پارامترها مانند آنالیزهای شیمیایی، خواص مکانیکی و غیره باید با استاندارد مربوطه مقایسه شوند. بازرس فقط در صورتی که همه موارد رضایت بخش بود، بازرس تنها مجاز به استفاده از مهر review یاذکر این در امضا خود است.</t>
   </si>
   <si>
     <t>A 530/A 530M</t>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="15" customHeight="1"/>
